--- a/final_data_pipeline/output/311225longform.xlsx
+++ b/final_data_pipeline/output/311225longform.xlsx
@@ -1598,7 +1598,7 @@
         <v>45</v>
       </c>
       <c r="AA12">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB12">
         <v>8000</v>
@@ -1687,7 +1687,7 @@
         <v>45</v>
       </c>
       <c r="AA13">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB13">
         <v>8000</v>
@@ -1776,7 +1776,7 @@
         <v>45</v>
       </c>
       <c r="AA14">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB14">
         <v>8000</v>
@@ -1865,7 +1865,7 @@
         <v>45</v>
       </c>
       <c r="AA15">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB15">
         <v>8000</v>
@@ -1954,7 +1954,7 @@
         <v>45</v>
       </c>
       <c r="AA16">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB16">
         <v>8000</v>
